--- a/WebTechProject.xlsx
+++ b/WebTechProject.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudar\Downloads\7thSemester\3.WebTech\WebTechProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Borrowing/Renting Service</t>
   </si>
@@ -104,27 +112,38 @@
   </si>
   <si>
     <t>Review/Rating</t>
+  </si>
+  <si>
+    <t>View All Interactions</t>
+  </si>
+  <si>
+    <t>Review Complaints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -135,31 +154,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -169,6 +200,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -183,6 +215,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -191,11 +224,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -204,63 +244,61 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -450,262 +488,273 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.5"/>
-    <col customWidth="1" min="3" max="3" width="32.13"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
-    <col customWidth="1" min="6" max="6" width="32.25"/>
-    <col customWidth="1" min="7" max="7" width="17.63"/>
-    <col customWidth="1" min="8" max="8" width="16.25"/>
-    <col customWidth="1" min="9" max="9" width="33.0"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -713,6 +762,6 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebTechProject.xlsx
+++ b/WebTechProject.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudar\Downloads\7thSemester\3.WebTech\WebTechProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIUB\7thSemester\3.WebTech\WebTechProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB48FD-E2B9-45B5-9F00-C55AA80E6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="8970" yWindow="3135" windowWidth="18195" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +49,6 @@
     <t>LogOut</t>
   </si>
   <si>
-    <t>Update Accountant</t>
-  </si>
-  <si>
     <t>View All Interations</t>
   </si>
   <si>
@@ -118,12 +116,15 @@
   </si>
   <si>
     <t>Review Complaints</t>
+  </si>
+  <si>
+    <t>Update Customer Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -494,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -596,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -613,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -630,16 +631,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -647,14 +648,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -662,14 +663,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -677,14 +678,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -692,14 +693,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -707,14 +708,14 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -722,14 +723,14 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -737,12 +738,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -752,10 +753,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/WebTechProject.xlsx
+++ b/WebTechProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIUB\7thSemester\3.WebTech\WebTechProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB48FD-E2B9-45B5-9F00-C55AA80E6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25809927-E4C4-4E65-B305-061BD8A208FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8970" yWindow="3135" windowWidth="18195" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/WebTechProject.xlsx
+++ b/WebTechProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIUB\7thSemester\3.WebTech\WebTechProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25809927-E4C4-4E65-B305-061BD8A208FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA46242-1D5B-4926-AA6A-9C4B71D37C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="3135" windowWidth="18195" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="1425" windowWidth="18195" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Borrowing/Renting Service</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>Update Customer Support</t>
+  </si>
+  <si>
+    <t>Block Owner/Borrower</t>
+  </si>
+  <si>
+    <t>Upload Picture</t>
+  </si>
+  <si>
+    <t>View all support acivties</t>
+  </si>
+  <si>
+    <t>View active Owner &amp; Borrower</t>
+  </si>
+  <si>
+    <t>Download active Owner &amp; Borrower list</t>
   </si>
 </sst>
 </file>
@@ -502,14 +517,14 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
@@ -650,7 +665,9 @@
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
@@ -665,7 +682,9 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
@@ -680,7 +699,9 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
@@ -695,7 +716,9 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -710,7 +733,9 @@
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
